--- a/Income/ABBV_inc.xlsx
+++ b/Income/ABBV_inc.xlsx
@@ -2097,10 +2097,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.6543</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.6707</v>
@@ -2225,10 +2223,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.2363</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.2481</v>
@@ -2353,10 +2349,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.083</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.0742</v>
@@ -2481,10 +2475,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.1018</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.0994</v>
@@ -2609,10 +2601,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.3666</v>
@@ -3629,10 +3619,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.4606</v>
@@ -3757,10 +3745,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.384</v>
